--- a/biology/Zoologie/Hoplophryne_rogersi/Hoplophryne_rogersi.xlsx
+++ b/biology/Zoologie/Hoplophryne_rogersi/Hoplophryne_rogersi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplophryne rogersi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplophryne rogersi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de la Tanzanie. Elle se rencontre entre 600 et 1 200 m d'altitude dans les monts Usambara, les monts Magrotto et les monts Nguru[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de la Tanzanie. Elle se rencontre entre 600 et 1 200 m d'altitude dans les monts Usambara, les monts Magrotto et les monts Nguru.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplophryne rogersi mesure environ 25 mm. Son dos est gris ardoise nuancé de bleu gris. Son ventre est noir vermiculé de blanc bleuté[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplophryne rogersi mesure environ 25 mm. Son dos est gris ardoise nuancé de bleu gris. Son ventre est noir vermiculé de blanc bleuté.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, rogersi, lui a été donné en référence à F. W. Rogers conservateur à l'institut Amani[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, rogersi, lui a été donné en référence à F. W. Rogers conservateur à l'institut Amani.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour &amp; Loveridge, 1928 : A comparative study of the herpetological faunae of the Uluguru and Usambara Mountains, Tanganyika Territory with descriptions of new species. Memoirs of the Museum of Comparative Zoology, Cambridge, Massachusetts, vol. 50, no 2, p. 87-265 (texte intégral).</t>
         </is>
